--- a/data/Subset 1/Maher_Fractions_Grade 4 - student talk moves.csv.xlsx
+++ b/data/Subset 1/Maher_Fractions_Grade 4 - student talk moves.csv.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -504,7 +504,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Students:</t>
+          <t>SS:</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Students:</t>
+          <t>SS:</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3186,7 +3186,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Students:</t>
+          <t>SS:</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Students:</t>
+          <t>SS:</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Students:</t>
+          <t>SS:</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3582,7 +3582,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3930,7 +3930,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Students:</t>
+          <t>SS:</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4659,7 +4659,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Students:</t>
+          <t>SS:</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4895,7 +4895,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4953,7 +4953,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -4982,7 +4982,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -5160,7 +5160,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5280,7 +5280,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5454,7 +5454,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -5570,7 +5570,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -5657,7 +5657,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5715,7 +5715,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -5860,7 +5860,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -5889,7 +5889,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -5947,7 +5947,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6150,7 +6150,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -6262,7 +6262,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -6407,7 +6407,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -6465,7 +6465,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Students:</t>
+          <t>SS:</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -6610,7 +6610,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Students:</t>
+          <t>SS:</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -6755,7 +6755,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G218" t="inlineStr"/>
@@ -6784,7 +6784,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G219" t="inlineStr"/>
@@ -6813,7 +6813,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G220" t="inlineStr"/>
@@ -6842,7 +6842,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G221" t="inlineStr"/>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -6939,7 +6939,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G224" t="inlineStr"/>
@@ -6958,7 +6958,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -6968,7 +6968,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G225" t="inlineStr"/>
@@ -6987,7 +6987,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -7016,7 +7016,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -7045,7 +7045,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -7103,7 +7103,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -7190,7 +7190,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -7248,7 +7248,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -7364,7 +7364,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -7393,7 +7393,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -7422,7 +7422,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -7538,7 +7538,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -7567,7 +7567,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -7596,7 +7596,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -7625,7 +7625,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -7774,7 +7774,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -7919,7 +7919,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -7958,7 +7958,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G259" t="inlineStr"/>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G264" t="inlineStr"/>
@@ -8122,7 +8122,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -8151,7 +8151,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -8180,7 +8180,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G269" t="inlineStr"/>
@@ -8267,7 +8267,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -8354,7 +8354,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -8383,7 +8383,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -8412,7 +8412,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -8441,7 +8441,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -8470,7 +8470,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -10449,7 +10449,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -10474,7 +10474,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -10549,7 +10549,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -10649,7 +10649,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -10724,7 +10724,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -10874,7 +10874,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -10924,7 +10924,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -11049,7 +11049,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -11074,7 +11074,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -14157,7 +14157,7 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
@@ -14182,7 +14182,7 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
@@ -14207,7 +14207,7 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
@@ -14232,7 +14232,7 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
@@ -14257,7 +14257,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
@@ -14282,7 +14282,7 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
@@ -14307,7 +14307,7 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
@@ -14332,7 +14332,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
@@ -14357,7 +14357,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
@@ -14382,7 +14382,7 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
@@ -14407,7 +14407,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
@@ -14432,7 +14432,7 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
@@ -14459,7 +14459,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
@@ -14486,7 +14486,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>Students:</t>
+          <t>SS:</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
@@ -14511,7 +14511,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
@@ -14561,7 +14561,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
@@ -14588,7 +14588,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
@@ -14615,7 +14615,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
@@ -14642,7 +14642,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
@@ -14692,7 +14692,7 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
@@ -14717,7 +14717,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
@@ -14742,7 +14742,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
@@ -14767,7 +14767,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
@@ -14792,7 +14792,7 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
@@ -14842,7 +14842,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
@@ -14892,7 +14892,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
@@ -14917,7 +14917,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
@@ -14942,7 +14942,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
@@ -14967,7 +14967,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
@@ -14992,7 +14992,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
@@ -15017,7 +15017,7 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
@@ -15042,7 +15042,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
@@ -15067,7 +15067,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
@@ -15092,7 +15092,7 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
@@ -15117,7 +15117,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
@@ -15127,7 +15127,7 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G542" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
@@ -15152,7 +15152,7 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G543" t="inlineStr"/>
@@ -15167,7 +15167,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
@@ -15192,7 +15192,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
@@ -15217,7 +15217,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
@@ -15267,7 +15267,7 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
@@ -15277,7 +15277,7 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G548" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
@@ -15317,7 +15317,7 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
@@ -15371,7 +15371,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
@@ -15398,7 +15398,7 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
@@ -15425,7 +15425,7 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
@@ -15533,7 +15533,7 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
@@ -15587,7 +15587,7 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
@@ -15668,7 +15668,7 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
@@ -15695,7 +15695,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
@@ -15722,7 +15722,7 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
@@ -15776,7 +15776,7 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
@@ -15803,7 +15803,7 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
@@ -15857,7 +15857,7 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
@@ -15965,7 +15965,7 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
@@ -15992,7 +15992,7 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
@@ -16019,7 +16019,7 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
@@ -16046,7 +16046,7 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
@@ -16073,7 +16073,7 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
@@ -16098,7 +16098,7 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
@@ -16125,7 +16125,7 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
@@ -16152,7 +16152,7 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
@@ -16179,7 +16179,7 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
@@ -16233,7 +16233,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
@@ -16243,7 +16243,7 @@
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G584" t="inlineStr"/>
@@ -16260,7 +16260,7 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>Students:</t>
+          <t>SS:</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
@@ -16287,7 +16287,7 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>Students:</t>
+          <t>SS:</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
@@ -16314,7 +16314,7 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>Students:</t>
+          <t>SS:</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
@@ -16341,7 +16341,7 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
@@ -16476,7 +16476,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -16486,7 +16486,7 @@
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G593" t="inlineStr"/>
@@ -16534,7 +16534,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -16665,7 +16665,7 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
@@ -16723,7 +16723,7 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
@@ -16750,7 +16750,7 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
@@ -16777,7 +16777,7 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
@@ -16787,7 +16787,7 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G604" t="inlineStr"/>
@@ -16804,7 +16804,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
@@ -16831,7 +16831,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
@@ -16858,7 +16858,7 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
@@ -16868,7 +16868,7 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G607" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
@@ -16912,7 +16912,7 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>Students:</t>
+          <t>SS:</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
@@ -16943,7 +16943,7 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
@@ -16970,7 +16970,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
@@ -16997,7 +16997,7 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>Students:</t>
+          <t>SS:</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
@@ -17055,7 +17055,7 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
@@ -17065,7 +17065,7 @@
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G614" t="inlineStr"/>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
@@ -17119,7 +17119,7 @@
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G616" t="inlineStr"/>
@@ -17217,7 +17217,7 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
@@ -17244,7 +17244,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
@@ -17271,7 +17271,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
@@ -17298,7 +17298,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
@@ -17325,7 +17325,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
@@ -17352,7 +17352,7 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
@@ -17377,7 +17377,7 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E626" t="inlineStr">
@@ -17408,7 +17408,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E627" t="inlineStr">
@@ -17435,7 +17435,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
@@ -17462,7 +17462,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>Students:</t>
+          <t>SS:</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
@@ -17489,7 +17489,7 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
@@ -17516,7 +17516,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>Students:</t>
+          <t>SS:</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
@@ -17547,7 +17547,7 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
@@ -17574,7 +17574,7 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
@@ -17655,7 +17655,7 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
@@ -17682,7 +17682,7 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
@@ -17719,7 +17719,7 @@
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G638" t="inlineStr"/>
@@ -17736,7 +17736,7 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>Students:</t>
+          <t>SS:</t>
         </is>
       </c>
       <c r="E639" t="inlineStr">
@@ -17763,7 +17763,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>Students:</t>
+          <t>SS:</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
@@ -17871,7 +17871,7 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
@@ -17925,7 +17925,7 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
@@ -17952,7 +17952,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
@@ -17979,7 +17979,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
@@ -18006,7 +18006,7 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
@@ -18033,7 +18033,7 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
@@ -18060,7 +18060,7 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
@@ -18114,7 +18114,7 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E653" t="inlineStr">
@@ -18124,7 +18124,7 @@
       </c>
       <c r="F653" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G653" t="inlineStr"/>
@@ -18357,7 +18357,7 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
@@ -18438,7 +18438,7 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
@@ -18492,7 +18492,7 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E667" t="inlineStr">
@@ -18519,7 +18519,7 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E668" t="inlineStr">
@@ -18546,7 +18546,7 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E669" t="inlineStr">
@@ -18600,7 +18600,7 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
@@ -18627,7 +18627,7 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
@@ -18654,7 +18654,7 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
@@ -18664,7 +18664,7 @@
       </c>
       <c r="F673" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G673" t="inlineStr"/>
@@ -18681,7 +18681,7 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>Students:</t>
+          <t>SS:</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
@@ -18735,7 +18735,7 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
@@ -18762,7 +18762,7 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
@@ -18789,7 +18789,7 @@
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E678" t="inlineStr">
@@ -18843,7 +18843,7 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
@@ -18870,7 +18870,7 @@
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
@@ -18897,7 +18897,7 @@
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
@@ -18924,7 +18924,7 @@
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E683" t="inlineStr">
@@ -18951,7 +18951,7 @@
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E684" t="inlineStr">
@@ -18978,7 +18978,7 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
@@ -19005,7 +19005,7 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E686" t="inlineStr">
@@ -19032,7 +19032,7 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E687" t="inlineStr">
@@ -19059,7 +19059,7 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E688" t="inlineStr">
@@ -19086,7 +19086,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E689" t="inlineStr">
@@ -19113,7 +19113,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E690" t="inlineStr">
@@ -19140,7 +19140,7 @@
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E691" t="inlineStr">
@@ -19167,7 +19167,7 @@
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E692" t="inlineStr">
@@ -19194,7 +19194,7 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
@@ -19221,7 +19221,7 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E694" t="inlineStr">
@@ -19248,7 +19248,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E695" t="inlineStr">
@@ -19275,7 +19275,7 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E696" t="inlineStr">
@@ -19302,7 +19302,7 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E697" t="inlineStr">
@@ -19329,7 +19329,7 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E698" t="inlineStr">
@@ -19383,7 +19383,7 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E700" t="inlineStr">
@@ -19410,7 +19410,7 @@
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T1:</t>
         </is>
       </c>
       <c r="E701" t="inlineStr">
